--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_NhatQuang.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -261,7 +261,10 @@
     <t>DL Nhật Quang</t>
   </si>
   <si>
-    <t>BG</t>
+    <t>ID mới : 862846048291341</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
   </si>
 </sst>
 </file>
@@ -652,6 +655,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,43 +1039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1117,58 +1120,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
@@ -1193,23 +1196,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,9 @@
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="I6" s="54" t="s">
         <v>71</v>
       </c>
@@ -1244,16 +1249,26 @@
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+        <v>77</v>
+      </c>
+      <c r="N6" s="42">
+        <v>220000</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1288,7 +1303,7 @@
       <c r="J7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="66" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="40"/>
@@ -1310,7 +1325,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1343,7 +1358,7 @@
       <c r="J8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="65" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="40"/>
@@ -1365,7 +1380,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1409,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1423,7 +1438,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1467,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1496,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1512,7 +1527,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1541,7 +1556,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1570,7 +1585,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1599,7 +1614,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +1765,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1931,7 +1946,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2251,7 +2266,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2830,6 +2845,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2841,13 +2863,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2891,43 +2906,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2972,58 +2987,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3048,23 +3063,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,7 +3105,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3121,7 +3136,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3150,7 +3165,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3179,7 +3194,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3208,7 +3223,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3237,7 +3252,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +3281,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3297,7 +3312,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3326,7 +3341,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3355,7 +3370,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3384,7 +3399,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4615,13 +4630,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4633,6 +4641,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_NhatQuang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang4\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang4\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -271,6 +271,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -661,9 +664,24 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,20 +703,29 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,15 +1033,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="87" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
@@ -1039,43 +1066,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1096,8 +1123,8 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1120,62 +1147,62 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="82" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="64" t="s">
@@ -1196,34 +1223,34 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
-        <v>44260</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44260</v>
+      <c r="B6" s="83">
+        <v>44320</v>
+      </c>
+      <c r="C6" s="83">
+        <v>44320</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
@@ -1268,7 +1295,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1280,11 +1307,11 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44260</v>
-      </c>
-      <c r="C7" s="37">
-        <v>44260</v>
+      <c r="B7" s="83">
+        <v>44320</v>
+      </c>
+      <c r="C7" s="83">
+        <v>44320</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
@@ -1325,7 +1352,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1335,11 +1362,11 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44260</v>
-      </c>
-      <c r="C8" s="37">
-        <v>44260</v>
+      <c r="B8" s="83">
+        <v>44320</v>
+      </c>
+      <c r="C8" s="83">
+        <v>44320</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
@@ -1380,7 +1407,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1390,8 +1417,8 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
       <c r="F9" s="38"/>
@@ -1409,7 +1436,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1419,8 +1446,8 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
@@ -1438,7 +1465,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1448,8 +1475,8 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
@@ -1467,7 +1494,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1477,8 +1504,8 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
@@ -1496,7 +1523,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1508,8 +1535,8 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
@@ -1527,7 +1554,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1537,8 +1564,8 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -1556,7 +1583,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1566,8 +1593,8 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
@@ -1585,7 +1612,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1595,11 +1622,11 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
       <c r="I16" s="60"/>
@@ -1614,7 +1641,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1624,8 +1651,8 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
@@ -1651,8 +1678,8 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
@@ -1678,8 +1705,8 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
@@ -1709,8 +1736,8 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
@@ -1741,8 +1768,8 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
@@ -1773,8 +1800,8 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
@@ -1805,8 +1832,8 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
@@ -1832,8 +1859,8 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
@@ -1859,8 +1886,8 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
@@ -1890,8 +1917,8 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
@@ -1922,8 +1949,8 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
@@ -1954,8 +1981,8 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
@@ -1986,8 +2013,8 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
@@ -2018,8 +2045,8 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
@@ -2050,8 +2077,8 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
@@ -2082,8 +2109,8 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
@@ -2114,8 +2141,8 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
@@ -2146,8 +2173,8 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
@@ -2178,8 +2205,8 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
@@ -2210,8 +2237,8 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
@@ -2242,8 +2269,8 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
@@ -2274,8 +2301,8 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
@@ -2301,8 +2328,8 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
@@ -2328,8 +2355,8 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
@@ -2360,8 +2387,8 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
@@ -2392,8 +2419,8 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
@@ -2419,8 +2446,8 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
@@ -2446,8 +2473,8 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
@@ -2482,8 +2509,8 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
@@ -2521,8 +2548,8 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
@@ -2560,8 +2587,8 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
@@ -2599,8 +2626,8 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
@@ -2641,8 +2668,8 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
@@ -2669,8 +2696,8 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="46"/>
       <c r="E50" s="31"/>
       <c r="F50" s="46"/>
@@ -2697,8 +2724,8 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
@@ -2725,8 +2752,8 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
@@ -2753,8 +2780,8 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -2781,8 +2808,8 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
@@ -2809,8 +2836,8 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
@@ -2845,13 +2872,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2863,6 +2883,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2906,43 +2933,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2987,58 +3014,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3063,23 +3090,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,7 +3132,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3136,7 +3163,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3165,7 +3192,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3194,7 +3221,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3223,7 +3250,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3252,7 +3279,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3281,7 +3308,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3312,7 +3339,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3341,7 +3368,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3370,7 +3397,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3399,7 +3426,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4630,6 +4657,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4641,13 +4675,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="26" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -272,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,15 +622,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,6 +658,54 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,56 +718,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,21 +1027,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="87" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1066,46 +1060,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1123,14 +1117,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1147,109 +1141,109 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="68">
         <v>44320</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="68">
         <v>44320</v>
       </c>
       <c r="D6" s="38" t="s">
@@ -1258,14 +1252,14 @@
       <c r="E6" s="39">
         <v>866104027001281</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1295,7 +1289,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1307,10 +1301,10 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="68">
         <v>44320</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="68">
         <v>44320</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -1319,18 +1313,18 @@
       <c r="E7" s="39">
         <v>866104028867375</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="53" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="64" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="40"/>
@@ -1352,7 +1346,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1362,10 +1356,10 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="68">
         <v>44320</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="68">
         <v>44320</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -1374,18 +1368,18 @@
       <c r="E8" s="39">
         <v>861694031774555</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="54" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="53" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="63" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="40"/>
@@ -1407,7 +1401,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1417,14 +1411,14 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -1436,7 +1430,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1446,14 +1440,14 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1465,7 +1459,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1475,14 +1469,14 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1494,7 +1488,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1504,14 +1498,14 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1523,7 +1517,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1535,14 +1529,14 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="54"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1554,7 +1548,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1564,14 +1558,14 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="54"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1583,7 +1577,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1593,14 +1587,14 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1612,7 +1606,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1622,14 +1616,14 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="80"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1641,7 +1635,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1651,14 +1645,14 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1678,14 +1672,14 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1705,14 +1699,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1736,14 +1730,14 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1768,14 +1762,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1800,14 +1794,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1832,14 +1826,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1859,14 +1853,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1886,14 +1880,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1917,14 +1911,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1949,14 +1943,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1981,14 +1975,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2013,14 +2007,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2045,14 +2039,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2077,14 +2071,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2109,14 +2103,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2141,14 +2135,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2173,14 +2167,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2205,14 +2199,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2237,14 +2231,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2269,14 +2263,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2301,14 +2295,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2328,14 +2322,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2355,14 +2349,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2387,14 +2381,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2419,14 +2413,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2446,14 +2440,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2473,14 +2467,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2509,14 +2503,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2548,14 +2542,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2587,14 +2581,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2626,14 +2620,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2668,14 +2662,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2696,14 +2690,14 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="46"/>
       <c r="E50" s="31"/>
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2724,14 +2718,14 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2752,14 +2746,14 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2780,14 +2774,14 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2808,14 +2802,14 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2836,14 +2830,14 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2872,6 +2866,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2883,13 +2884,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2900,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2933,43 +2927,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3014,58 +3008,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3090,49 +3084,79 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
+      <c r="B6" s="68">
+        <v>44320</v>
+      </c>
+      <c r="C6" s="68">
+        <v>44320</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866104027001281</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>73</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="42">
+        <v>220000</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3144,26 +3168,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="68">
+        <v>44320</v>
+      </c>
+      <c r="C7" s="68">
+        <v>44320</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="39">
+        <v>866104028867375</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>69</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3173,26 +3223,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="B8" s="68">
+        <v>44320</v>
+      </c>
+      <c r="C8" s="68">
+        <v>44320</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="39">
+        <v>861694031774555</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>69</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3221,7 +3297,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3250,7 +3326,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3267,7 +3343,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="40"/>
       <c r="K11" s="43"/>
       <c r="L11" s="40"/>
@@ -3279,7 +3355,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3308,7 +3384,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3339,7 +3415,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3368,7 +3444,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3397,7 +3473,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3426,7 +3502,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3545,7 +3621,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3577,7 +3653,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3758,7 +3834,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -3918,7 +3994,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4078,7 +4154,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4657,13 +4733,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4675,6 +4744,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
